--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/burndown_chart.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/burndown_chart.xlsx
@@ -756,11 +756,187 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2113933466"/>
-        <c:axId val="862083556"/>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFE699"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejemplo1!$C$4:$V$4</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejemplo1!$C$20:$V$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B4C7E7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejemplo1!$C$4:$V$4</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejemplo1!$C$21:$V$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="C6DEB5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejemplo1!$C$4:$V$4</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejemplo1!$C$22:$V$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EFF5FB"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejemplo1!$C$4:$V$4</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejemplo1!$C$23:$V$23</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="100000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="100000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="100000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejemplo1!$C$4:$V$4</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejemplo1!$D$25:$X$25</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="434343">
+                  <a:alpha val="100000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejemplo1!$C$4:$V$4</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejemplo1!$D$27:$X$27</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="436398015"/>
+        <c:axId val="1743031097"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113933466"/>
+        <c:axId val="436398015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,10 +988,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="862083556"/>
+        <c:crossAx val="1743031097"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="862083556"/>
+        <c:axId val="1743031097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +1055,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113933466"/>
+        <c:crossAx val="436398015"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1592,14 +1768,16 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
+      <c r="V12" s="14">
+        <v>2.0</v>
+      </c>
       <c r="W12" s="15"/>
       <c r="X12" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -1621,18 +1799,20 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
+      <c r="V13" s="14">
+        <v>2.0</v>
+      </c>
       <c r="W13" s="15"/>
       <c r="X13" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -1694,7 +1874,7 @@
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="R15" s="14"/>
       <c r="S15" s="19"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
@@ -1729,7 +1909,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
+      <c r="R16" s="13"/>
       <c r="S16" s="18"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
@@ -1761,11 +1941,13 @@
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
-      <c r="Q17" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="S17" s="14">
+        <v>1.0</v>
+      </c>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
@@ -1796,18 +1978,18 @@
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
-      <c r="Q18" s="14">
-        <v>2.0</v>
-      </c>
+      <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
+      <c r="S18" s="14">
+        <v>3.0</v>
+      </c>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
       <c r="W18" s="15"/>
       <c r="X18" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -1831,16 +2013,18 @@
       <c r="N19" s="17"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="Q19" s="14"/>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
-      <c r="T19" s="14"/>
+      <c r="T19" s="14">
+        <v>2.0</v>
+      </c>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
       <c r="W19" s="15"/>
       <c r="X19" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -1864,16 +2048,18 @@
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+      <c r="Q20" s="14"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
+      <c r="U20" s="14">
+        <v>2.0</v>
+      </c>
       <c r="V20" s="14"/>
       <c r="W20" s="15"/>
       <c r="X20" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -1897,16 +2083,18 @@
       <c r="N21" s="14"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
       <c r="S21" s="19"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
+      <c r="V21" s="14">
+        <v>2.0</v>
+      </c>
       <c r="W21" s="15"/>
       <c r="X21" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -1935,11 +2123,13 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
+      <c r="V22" s="14">
+        <v>2.0</v>
+      </c>
       <c r="W22" s="15"/>
       <c r="X22" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -2075,31 +2265,31 @@
       </c>
       <c r="R25" s="20">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="S25" s="20">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T25" s="20">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U25" s="20">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V25" s="20">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="W25" s="20">
         <f>V25-SUM(W5:W23)</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="X25" s="20">
         <f>W25-SUM(V5:V23)</f>
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -2168,27 +2358,27 @@
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S26" s="2">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T26" s="2">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="U26" s="2">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
